--- a/Resources/Rubic_Final_Project.xlsx
+++ b/Resources/Rubic_Final_Project.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Capstone_Final_Group_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Capstone_Final_Group_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB3E5D2-09F5-4A39-B466-88696B85E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9209944-6303-4813-B141-E4C2928D203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E3DF9171-A711-4317-AA8F-A7D0265AA2C6}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3DF9171-A711-4317-AA8F-A7D0265AA2C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rore Distribution" sheetId="1" r:id="rId1"/>
+    <sheet name="Role Distribution" sheetId="1" r:id="rId1"/>
     <sheet name="Segment 1" sheetId="2" r:id="rId2"/>
     <sheet name="Segment 2" sheetId="3" r:id="rId3"/>
     <sheet name="Segment 3" sheetId="4" r:id="rId4"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="266">
   <si>
     <t>Segment 1</t>
   </si>
@@ -826,19 +826,34 @@
     <t>Project description by Celine</t>
   </si>
   <si>
-    <t>shema completed by Celine</t>
-  </si>
-  <si>
-    <t>Team work -meetings</t>
-  </si>
-  <si>
-    <t>working as team</t>
-  </si>
-  <si>
-    <t>Working on it</t>
-  </si>
-  <si>
     <t>Data found in Kaggle seems to have varius categoties that we could work with</t>
+  </si>
+  <si>
+    <t>we all have ninumun requirements of commits</t>
+  </si>
+  <si>
+    <t>Different models have been tested</t>
+  </si>
+  <si>
+    <t>completed by Celine</t>
+  </si>
+  <si>
+    <t>Readme has been updted with questions</t>
+  </si>
+  <si>
+    <t>Stella and Berns</t>
+  </si>
+  <si>
+    <t>Gian</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Celine</t>
+  </si>
+  <si>
+    <t>Hilda</t>
   </si>
 </sst>
 </file>
@@ -1193,6 +1208,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,22 +1242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1234,6 +1249,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF32BBD6"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1243,6 +1264,1672 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>344804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAF57C6-667A-466D-AA17-9AEE28715CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="1914525"/>
+          <a:ext cx="266699" cy="306704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>611505</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1053465</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>293370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Isosceles Triangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3956B23B-3FEF-4D29-8646-9D46C34BE72A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2049780" y="1085850"/>
+          <a:ext cx="441960" cy="321945"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>626745</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1002030</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Flowchart: Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1068B001-6B27-44E2-9756-3EFAA399BF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2065020" y="1506855"/>
+          <a:ext cx="375285" cy="331470"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Multiplication Sign 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BA74CE-9D6F-422E-9804-2859A819A574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="2686050"/>
+          <a:ext cx="495300" cy="363855"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1049655</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Flowchart: Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B8EBD74-25D4-4917-AEE4-15D7B3D997E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2059305" y="781049"/>
+          <a:ext cx="428625" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923924</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>363854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07041886-BE99-4CDD-9D13-3F6FDF129B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2314575"/>
+          <a:ext cx="266699" cy="306704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>375285</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB0C4DF-C58C-46FF-B0DC-A180D86C0518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="3381375"/>
+          <a:ext cx="375285" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1091565</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Isosceles Triangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82382096-FE9D-4CB9-89C7-40BB1979D1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="742950"/>
+          <a:ext cx="434340" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125729</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506898DF-DE60-42D5-84EA-B33788D09EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="4467225"/>
+          <a:ext cx="266699" cy="306704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Multiplication Sign 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDE93E4-B08C-44E6-A92A-2ACA69D786CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="5010150"/>
+          <a:ext cx="495300" cy="360045"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962024</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>325754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A813942-853C-4F34-9698-6513D156632E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="1133475"/>
+          <a:ext cx="266699" cy="306704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Isosceles Triangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B66CF14-4C26-47BD-8B00-5ACCFE49D710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="3924300"/>
+          <a:ext cx="428625" cy="308610"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>339090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Isosceles Triangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A2F9F3-3589-4643-AA79-D8F8F2049616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="1905000"/>
+          <a:ext cx="430530" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>379095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Flowchart: Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FEA886-E064-4C48-9A96-EE9E2A1A03C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="2314575"/>
+          <a:ext cx="371475" cy="321945"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>369570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flowchart: Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BBAE60-2869-478E-851E-ADF415BC7A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="1543050"/>
+          <a:ext cx="371475" cy="321945"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>360045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flowchart: Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7787E9D9-1E8E-4812-9759-EEA90BF20478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="2676525"/>
+          <a:ext cx="371475" cy="321945"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Multiplication Sign 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC613FE-ED7C-41C5-AD89-2D452000085E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="1533525"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Multiplication Sign 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4E9071-04EB-49DD-BE54-6C464FFD28F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="2286000"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Multiplication Sign 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1164102C-1B87-45DB-9E42-6D82AC448EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="2676525"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1544,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B6BD1-4DDC-4CD3-92D4-33EE0DABD4B4}">
   <dimension ref="B3:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,87 +3244,76 @@
   <sheetData>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="C5" s="20"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>257</v>
-      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1645,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC40417-D181-4FB0-B498-EAB351EF558D}">
   <dimension ref="B1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,7 +3335,7 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1667,19 +3343,19 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1688,53 +3364,56 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1742,13 +3421,13 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
@@ -1757,13 +3436,13 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1772,13 +3451,13 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
         <v>21</v>
       </c>
@@ -1787,13 +3466,13 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1802,25 +3481,28 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
@@ -1829,32 +3511,32 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -1862,50 +3544,50 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="22"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -1913,46 +3595,46 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
@@ -1961,7 +3643,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="20"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="9" t="s">
         <v>47</v>
       </c>
@@ -1988,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2144317-978C-47B8-8037-A59862A19A1B}">
-  <dimension ref="B1:C70"/>
+  <dimension ref="B1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2003,7 +3685,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2011,80 +3693,80 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2092,316 +3774,331 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="25"/>
       <c r="C35" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20"/>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="26"/>
       <c r="C36" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="25"/>
       <c r="C39" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="25"/>
       <c r="C40" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
       <c r="C41" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
       <c r="C42" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="25"/>
       <c r="C43" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="25"/>
       <c r="C44" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
+      <c r="D44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="25"/>
       <c r="C45" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="25"/>
       <c r="C46" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="20"/>
+    <row r="47" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="26"/>
       <c r="C47" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="18" t="s">
+    <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="25"/>
       <c r="C50" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="25"/>
       <c r="C51" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="25"/>
       <c r="C52" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="25"/>
       <c r="C53" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="25"/>
       <c r="C54" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="25"/>
       <c r="C55" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="25"/>
       <c r="C56" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="25"/>
       <c r="C57" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="25"/>
       <c r="C58" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="25"/>
       <c r="C59" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="25"/>
       <c r="C60" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="19"/>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="25"/>
       <c r="C61" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="19"/>
+      <c r="D61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="25"/>
       <c r="C62" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="20"/>
+    <row r="63" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="26"/>
       <c r="C63" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="18" t="s">
+    <row r="64" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="19"/>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="25"/>
       <c r="C66" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="19"/>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="25"/>
       <c r="C67" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="19"/>
+      <c r="D67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="25"/>
       <c r="C68" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="19"/>
+      <c r="D68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="25"/>
       <c r="C69" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="20"/>
+      <c r="D69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="26"/>
       <c r="C70" s="6" t="s">
         <v>109</v>
       </c>
@@ -2422,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A2B61-32CC-45D0-AFF9-98C445AA4E74}">
   <dimension ref="B1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2444,86 +4141,86 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2531,146 +4228,146 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -2678,109 +4375,109 @@
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="6" t="s">
         <v>146</v>
       </c>
@@ -2796,7 +4493,7 @@
     </row>
     <row r="63" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -2804,37 +4501,37 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="19"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="19"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="19"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="19"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="19"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="20"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="6" t="s">
         <v>154</v>
       </c>
@@ -2854,7 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC49EBC-8266-40D2-8C01-CF642683398F}">
   <dimension ref="B1:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
@@ -2866,7 +4563,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2874,134 +4571,134 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="20"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3009,128 +4706,128 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="20"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -3138,104 +4835,104 @@
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="19"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="19"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="20"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -3243,56 +4940,56 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="19"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="19"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="19"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="19"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="19"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="19"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="19"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="20"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -3300,37 +4997,37 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="19"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="19"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="19"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="19"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="19"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="20"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="6" t="s">
         <v>211</v>
       </c>
@@ -3524,7 +5221,7 @@
       <c r="A4" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>251</v>
       </c>
     </row>

--- a/Resources/Rubic_Final_Project.xlsx
+++ b/Resources/Rubic_Final_Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Capstone_Final_Group_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9209944-6303-4813-B141-E4C2928D203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8275C6C-4EEC-4781-ADB1-D8B93E490E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3DF9171-A711-4317-AA8F-A7D0265AA2C6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3DF9171-A711-4317-AA8F-A7D0265AA2C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Distribution" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Segment 3" sheetId="4" r:id="rId4"/>
     <sheet name="Segment 4" sheetId="5" r:id="rId5"/>
     <sheet name="Assesment" sheetId="6" r:id="rId6"/>
-    <sheet name="Topics" sheetId="7" r:id="rId7"/>
+    <sheet name="Cost Preciction" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="264">
   <si>
     <t>Segment 1</t>
   </si>
@@ -799,24 +799,6 @@
     <t>we all have a branch</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Description of their source of data</t>
-  </si>
-  <si>
-    <t>Battery Life</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>https://www.dcc.fc.up.pt/~ltorgo/Regression/cal_housing.html</t>
-  </si>
-  <si>
-    <t>housing</t>
-  </si>
-  <si>
     <t>Cost Prediction on acquiring Customers</t>
   </si>
   <si>
@@ -854,6 +836,18 @@
   </si>
   <si>
     <t>Hilda</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -2053,16 +2047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2077,8 +2071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438275" y="5010150"/>
-          <a:ext cx="495300" cy="360045"/>
+          <a:off x="1343025" y="5010150"/>
+          <a:ext cx="495300" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
           <a:avLst/>
@@ -2927,6 +2921,2238 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>729615</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1003934</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>337184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85D2314-4E44-43DB-98D4-798EBF54E0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5749290" y="2286000"/>
+          <a:ext cx="274319" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1072515</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>354330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flowchart: Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25980433-9621-4983-92B6-5F350664C6DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2667000"/>
+          <a:ext cx="377190" cy="325755"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1072515</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>354330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DC4FC2-29E5-4DCE-81C9-041521753813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1520190"/>
+          <a:ext cx="377190" cy="329565"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Isosceles Triangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583043EA-A53F-41CA-9BB1-C2A49A69F184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="1914525"/>
+          <a:ext cx="436245" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1019174</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>365759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12BFE7F-1514-4655-8332-54B84D5A9125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="1171575"/>
+          <a:ext cx="276224" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Multiplication Sign 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACB0DDD-D07C-40AB-9510-453731FC1E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="742950"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>308609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31040B3-3616-4941-81DD-7C77F692A804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="733425"/>
+          <a:ext cx="278129" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>308609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3BAAD4-CB45-4BDB-A234-035E70178994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="1114425"/>
+          <a:ext cx="278129" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>308609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA5C525-283D-4AEB-904E-970417959D84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="1495425"/>
+          <a:ext cx="278129" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>308609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8960F566-7230-4FCC-8832-08DA61737611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="1495425"/>
+          <a:ext cx="278129" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E50681-6D7F-4615-9926-05B454F5C80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="1876425"/>
+          <a:ext cx="278129" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>308609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7AEB3-36E7-429F-A7DF-C046EB1AE8D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="2257425"/>
+          <a:ext cx="278129" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>308609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A93CC18-1158-4DA0-84DA-39351AF93EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="2638425"/>
+          <a:ext cx="278129" cy="308609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF6600"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>958215</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Flowchart: Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C328CF-F1F4-445F-A69F-281EEEB84607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="1914525"/>
+          <a:ext cx="377190" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>988695</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>329565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Isosceles Triangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D1B8FF-4683-43CD-AA0C-D80FD32242FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="1504950"/>
+          <a:ext cx="436245" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1007745</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Isosceles Triangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E506845-3131-4616-AF0C-E8658D0BB724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7378065" y="2665095"/>
+          <a:ext cx="440055" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1017270</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>354330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Isosceles Triangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D1735B-B194-4C61-A102-7CE1B4E0F602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2295525"/>
+          <a:ext cx="436245" cy="316230"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>986790</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>360045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Flowchart: Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD84AB37-E1AA-46BC-BF62-40FC164880C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="1143000"/>
+          <a:ext cx="377190" cy="331470"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>986790</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>344805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Flowchart: Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D554143-7242-4992-867C-5C69AF3159D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="742950"/>
+          <a:ext cx="377190" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="32BBD6"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Multiplication Sign 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CED17C-CAF6-4330-A867-1B43AE3A27D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="762000"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Multiplication Sign 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE814809-5D9C-4232-B83F-179E5C4EF827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="1162050"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Multiplication Sign 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED62F374-F39A-4485-9751-5D4FCB3DAC9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="1543050"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Multiplication Sign 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3419921E-8814-447F-B553-47D2484CCDA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="1905000"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Multiplication Sign 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513687C8-508F-48AF-B125-6D399CD380CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="2324100"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Multiplication Sign 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A78B12-06A3-4C4E-B28D-F67B6BE6C32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="2714625"/>
+          <a:ext cx="495300" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="50000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286379</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885F3784-1C42-1688-C013-397E936CB9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102870" y="161925"/>
+          <a:ext cx="10213334" cy="7095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3232,7 +5458,7 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3321,7 +5547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC40417-D181-4FB0-B498-EAB351EF558D}">
   <dimension ref="B1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3360,7 +5586,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -3369,7 +5595,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -3384,7 +5610,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -3447,7 +5673,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -3492,7 +5718,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -3507,7 +5733,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -3624,7 +5850,7 @@
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -3639,7 +5865,7 @@
         <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3672,7 +5898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2144317-978C-47B8-8037-A59862A19A1B}">
   <dimension ref="B1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
@@ -3938,7 +6164,7 @@
         <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -4040,7 +6266,7 @@
         <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -4076,7 +6302,7 @@
         <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -4085,7 +6311,7 @@
         <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -4094,7 +6320,7 @@
         <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4117,10 +6343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A2B61-32CC-45D0-AFF9-98C445AA4E74}">
-  <dimension ref="B1:C70"/>
+  <dimension ref="B1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4131,8 +6357,8 @@
     <col min="4" max="4" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
@@ -4140,86 +6366,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
       <c r="C3" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="C4" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="25"/>
       <c r="C8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="26"/>
       <c r="C15" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>51</v>
       </c>
@@ -4227,91 +6456,94 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
         <v>125</v>
@@ -4410,80 +6642,83 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="25"/>
       <c r="C49" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="25"/>
       <c r="C50" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="25"/>
       <c r="C51" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="25"/>
       <c r="C52" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="25"/>
       <c r="C53" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="25"/>
       <c r="C54" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="25"/>
       <c r="C55" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="25"/>
       <c r="C56" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="25"/>
       <c r="C57" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="25"/>
       <c r="C58" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="25"/>
       <c r="C59" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="26"/>
       <c r="C60" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>39</v>
       </c>
@@ -4491,8 +6726,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="24" t="s">
         <v>48</v>
       </c>
@@ -4500,37 +6735,40 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="25"/>
       <c r="C65" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="25"/>
       <c r="C66" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="25"/>
       <c r="C67" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="25"/>
       <c r="C68" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="25"/>
       <c r="C69" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="26"/>
       <c r="C70" s="6" t="s">
         <v>154</v>
@@ -4549,10 +6787,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC49EBC-8266-40D2-8C01-CF642683398F}">
-  <dimension ref="B1:C82"/>
+  <dimension ref="B1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4654,50 +6892,53 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="26"/>
       <c r="C23" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
         <v>51</v>
       </c>
@@ -4705,128 +6946,137 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
       <c r="C36" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="25"/>
       <c r="C37" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
       <c r="C38" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="25"/>
       <c r="C39" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="25"/>
       <c r="C40" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="25"/>
       <c r="C41" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="25"/>
       <c r="C42" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="25"/>
       <c r="C44" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="26"/>
       <c r="C45" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="24" t="s">
         <v>79</v>
       </c>
@@ -4834,104 +7084,107 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="25"/>
       <c r="C48" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="25"/>
       <c r="C49" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="25"/>
       <c r="C50" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="25"/>
       <c r="C51" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="25"/>
       <c r="C52" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="25"/>
       <c r="C53" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="25"/>
       <c r="C54" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="25"/>
       <c r="C55" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="25"/>
       <c r="C56" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="25"/>
       <c r="C57" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="25"/>
       <c r="C58" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="25"/>
       <c r="C59" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="25"/>
       <c r="C60" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="25"/>
       <c r="C61" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="25"/>
       <c r="C62" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="26"/>
       <c r="C63" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="24" t="s">
         <v>39</v>
       </c>
@@ -4939,56 +7192,59 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="25"/>
       <c r="C66" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="25"/>
       <c r="C67" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="25"/>
       <c r="C68" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="25"/>
       <c r="C69" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="25"/>
       <c r="C70" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="25"/>
       <c r="C71" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="25"/>
       <c r="C72" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="26"/>
       <c r="C73" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="24" t="s">
         <v>48</v>
       </c>
@@ -4996,40 +7252,43 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="25"/>
       <c r="C77" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
       <c r="C78" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="25"/>
       <c r="C79" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="25"/>
       <c r="C80" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="25"/>
       <c r="C81" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="26"/>
       <c r="C82" s="6" t="s">
         <v>211</v>
+      </c>
+      <c r="D82" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5184,10 +7443,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD445A8F-4588-412B-9653-DD81407FD81E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5196,39 +7455,11 @@
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>251</v>
-      </c>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="18"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{928F6583-CD88-4B98-B814-01B35D188BCC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>